--- a/Some result data/Gene Set Enrichment results/Gene Set Enrichment - WikiPathways/GSEresultsWP_lightyellow_DCM_.xlsx
+++ b/Some result data/Gene Set Enrichment results/Gene Set Enrichment - WikiPathways/GSEresultsWP_lightyellow_DCM_.xlsx
@@ -192,16 +192,16 @@
         <v>0.9375</v>
       </c>
       <c r="E2" t="n">
-        <v>1.608408735217531</v>
+        <v>1.5888322343738148</v>
       </c>
       <c r="F2" t="n">
-        <v>0.016353353467389045</v>
+        <v>0.014933622914248774</v>
       </c>
       <c r="G2" t="n">
-        <v>0.18360877613602086</v>
+        <v>0.14276476253786627</v>
       </c>
       <c r="H2" t="n">
-        <v>0.16106032994387795</v>
+        <v>0.12523224784023357</v>
       </c>
       <c r="I2" t="n">
         <v>6.0</v>
@@ -227,16 +227,16 @@
         <v>0.90625</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5547951107102798</v>
+        <v>1.5358711598946877</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03060146268933681</v>
+        <v>0.023794127089644377</v>
       </c>
       <c r="G3" t="n">
-        <v>0.18360877613602086</v>
+        <v>0.14276476253786627</v>
       </c>
       <c r="H3" t="n">
-        <v>0.16106032994387795</v>
+        <v>0.12523224784023357</v>
       </c>
       <c r="I3" t="n">
         <v>8.0</v>
@@ -262,16 +262,16 @@
         <v>-0.8208071839146992</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.3527440965767765</v>
+        <v>-1.3438956514398925</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08118081180811808</v>
+        <v>0.10056925996204934</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2656826568265682</v>
+        <v>0.3415559772296015</v>
       </c>
       <c r="H4" t="n">
-        <v>0.23305496212856863</v>
+        <v>0.29961050634175573</v>
       </c>
       <c r="I4" t="n">
         <v>2.0</v>
@@ -297,16 +297,16 @@
         <v>-0.8125</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.339053312407233</v>
+        <v>-1.3302944201672433</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08856088560885608</v>
+        <v>0.11385199240986717</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2656826568265682</v>
+        <v>0.3415559772296015</v>
       </c>
       <c r="H5" t="n">
-        <v>0.23305496212856863</v>
+        <v>0.29961050634175573</v>
       </c>
       <c r="I5" t="n">
         <v>15.0</v>
